--- a/state_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
+++ b/state_results/Rivers/MangaoreatdsShannonSTP_d0190746dc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.19514675722007</v>
+        <v>1.19500182613696</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -651,7 +651,7 @@
         <v>0.006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009072352543762799</v>
+        <v>0.009113523699003499</v>
       </c>
       <c r="H3" t="n">
         <v>0.053</v>
@@ -732,7 +732,7 @@
         <v>0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009072352543762799</v>
+        <v>0.009113523699003499</v>
       </c>
       <c r="H4" t="n">
         <v>0.053</v>
@@ -1153,7 +1153,7 @@
         <v>0.00597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0168703824427644</v>
+        <v>0.0168899260865652</v>
       </c>
       <c r="H9" t="n">
         <v>0.16428604168182</v>
@@ -1234,7 +1234,7 @@
         <v>0.00597</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0168703824427644</v>
+        <v>0.0168899260865652</v>
       </c>
       <c r="H10" t="n">
         <v>0.16428604168182</v>
@@ -2020,7 +2020,7 @@
         <v>0.007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0097989223351515</v>
+        <v>0.0098294093099805</v>
       </c>
       <c r="H20" t="n">
         <v>0.05</v>
@@ -2101,7 +2101,7 @@
         <v>0.007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0097989223351515</v>
+        <v>0.0098294093099805</v>
       </c>
       <c r="H21" t="n">
         <v>0.05</v>
@@ -2522,7 +2522,7 @@
         <v>0.00676</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0191672172306981</v>
+        <v>0.0191798852729071</v>
       </c>
       <c r="H26" t="n">
         <v>0.16428604168182</v>
@@ -2603,7 +2603,7 @@
         <v>0.00676</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0191672172306981</v>
+        <v>0.0191798852729071</v>
       </c>
       <c r="H27" t="n">
         <v>0.16428604168182</v>
@@ -3389,7 +3389,7 @@
         <v>0.0075</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0110164836263049</v>
+        <v>0.0110403555814617</v>
       </c>
       <c r="H37" t="n">
         <v>0.1</v>
@@ -3470,7 +3470,7 @@
         <v>0.0075</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0110164836263049</v>
+        <v>0.0110403555814617</v>
       </c>
       <c r="H38" t="n">
         <v>0.1</v>
@@ -3891,7 +3891,7 @@
         <v>0.00633</v>
       </c>
       <c r="G43" t="n">
-        <v>0.020090179402309</v>
+        <v>0.0200985834714136</v>
       </c>
       <c r="H43" t="n">
         <v>0.16428604168182</v>
@@ -3972,7 +3972,7 @@
         <v>0.00633</v>
       </c>
       <c r="G44" t="n">
-        <v>0.020090179402309</v>
+        <v>0.0200985834714136</v>
       </c>
       <c r="H44" t="n">
         <v>0.16428604168182</v>
@@ -4758,7 +4758,7 @@
         <v>0.008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0118419853902187</v>
+        <v>0.0118587104162494</v>
       </c>
       <c r="H54" t="n">
         <v>0.1</v>
@@ -4839,7 +4839,7 @@
         <v>0.008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0118419853902187</v>
+        <v>0.0118587104162494</v>
       </c>
       <c r="H55" t="n">
         <v>0.1</v>
@@ -5260,7 +5260,7 @@
         <v>0.00378</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0189852954610281</v>
+        <v>0.0189945526058925</v>
       </c>
       <c r="H60" t="n">
         <v>0.16428604168182</v>
@@ -5341,7 +5341,7 @@
         <v>0.00378</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0189852954610281</v>
+        <v>0.0189945526058925</v>
       </c>
       <c r="H61" t="n">
         <v>0.16428604168182</v>
@@ -5422,7 +5422,7 @@
         <v>0.117</v>
       </c>
       <c r="G62" t="n">
-        <v>0.151759582769482</v>
+        <v>0.151762116563338</v>
       </c>
       <c r="H62" t="n">
         <v>0.54</v>
@@ -5503,7 +5503,7 @@
         <v>0.117</v>
       </c>
       <c r="G63" t="n">
-        <v>0.151759582769482</v>
+        <v>0.151762116563338</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
@@ -6127,7 +6127,7 @@
         <v>0.006</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0118151524846267</v>
+        <v>0.0118410715059918</v>
       </c>
       <c r="H71" t="n">
         <v>0.1</v>
@@ -6208,7 +6208,7 @@
         <v>0.006</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0118151524846267</v>
+        <v>0.0118410715059918</v>
       </c>
       <c r="H72" t="n">
         <v>0.1</v>
@@ -6629,7 +6629,7 @@
         <v>0.00176</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0165517386266095</v>
+        <v>0.0165731175314317</v>
       </c>
       <c r="H77" t="n">
         <v>0.203134935089944</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00119</v>
+        <v>0.00121</v>
       </c>
       <c r="M77" t="n">
         <v>0.02857</v>
@@ -6710,7 +6710,7 @@
         <v>0.00176</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0165517386266095</v>
+        <v>0.0165731175314317</v>
       </c>
       <c r="H78" t="n">
         <v>0.203134935089944</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00119</v>
+        <v>0.00121</v>
       </c>
       <c r="M78" t="n">
         <v>0.02857</v>
@@ -6791,7 +6791,7 @@
         <v>0.08705</v>
       </c>
       <c r="G79" t="n">
-        <v>0.127163589723324</v>
+        <v>0.127166081287282</v>
       </c>
       <c r="H79" t="n">
         <v>0.52</v>
@@ -6872,7 +6872,7 @@
         <v>0.08705</v>
       </c>
       <c r="G80" t="n">
-        <v>0.127163589723324</v>
+        <v>0.127166081287282</v>
       </c>
       <c r="H80" t="n">
         <v>0.52</v>
@@ -7496,7 +7496,7 @@
         <v>0.0055</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0104638279760858</v>
+        <v>0.0104898437095405</v>
       </c>
       <c r="H88" t="n">
         <v>0.1</v>
@@ -7577,7 +7577,7 @@
         <v>0.0055</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0104638279760858</v>
+        <v>0.0104898437095405</v>
       </c>
       <c r="H89" t="n">
         <v>0.1</v>
@@ -7995,10 +7995,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="G94" t="n">
-        <v>0.009702887888755301</v>
+        <v>0.0097426417034535</v>
       </c>
       <c r="H94" t="n">
         <v>0.203134935089944</v>
@@ -8009,7 +8009,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.0012</v>
+        <v>0.00122</v>
       </c>
       <c r="M94" t="n">
         <v>0.007979999999999999</v>
@@ -8076,10 +8076,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.00125</v>
+        <v>0.00131</v>
       </c>
       <c r="G95" t="n">
-        <v>0.009702887888755301</v>
+        <v>0.0097426417034535</v>
       </c>
       <c r="H95" t="n">
         <v>0.203134935089944</v>
@@ -8090,7 +8090,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.0012</v>
+        <v>0.00122</v>
       </c>
       <c r="M95" t="n">
         <v>0.007979999999999999</v>
@@ -8160,7 +8160,7 @@
         <v>0.054</v>
       </c>
       <c r="G96" t="n">
-        <v>0.103080256389991</v>
+        <v>0.103082747953949</v>
       </c>
       <c r="H96" t="n">
         <v>0.4003</v>
@@ -8241,7 +8241,7 @@
         <v>0.054</v>
       </c>
       <c r="G97" t="n">
-        <v>0.103080256389991</v>
+        <v>0.103082747953949</v>
       </c>
       <c r="H97" t="n">
         <v>0.4003</v>
@@ -8865,7 +8865,7 @@
         <v>0.005</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0099737025076513</v>
+        <v>0.0100105280839619</v>
       </c>
       <c r="H105" t="n">
         <v>0.1</v>
@@ -8946,7 +8946,7 @@
         <v>0.005</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0099737025076513</v>
+        <v>0.0100105280839619</v>
       </c>
       <c r="H106" t="n">
         <v>0.1</v>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00147</v>
+        <v>0.00156</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0097354723612089</v>
+        <v>0.0098240957732522</v>
       </c>
       <c r="H111" t="n">
         <v>0.203134935089944</v>
@@ -9378,13 +9378,13 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00138</v>
+        <v>0.00143</v>
       </c>
       <c r="M111" t="n">
-        <v>0.00844</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03077</v>
+        <v>0.03095</v>
       </c>
       <c r="O111" t="n">
         <v>1803109.05</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00147</v>
+        <v>0.00156</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0097354723612089</v>
+        <v>0.0098240957732522</v>
       </c>
       <c r="H112" t="n">
         <v>0.203134935089944</v>
@@ -9459,13 +9459,13 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00138</v>
+        <v>0.00143</v>
       </c>
       <c r="M112" t="n">
-        <v>0.00844</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03077</v>
+        <v>0.03095</v>
       </c>
       <c r="O112" t="n">
         <v>1803109.05</v>
@@ -9529,7 +9529,7 @@
         <v>0.0795</v>
       </c>
       <c r="G113" t="n">
-        <v>0.136603589723324</v>
+        <v>0.136606081287282</v>
       </c>
       <c r="H113" t="n">
         <v>1.86</v>
@@ -9610,7 +9610,7 @@
         <v>0.0795</v>
       </c>
       <c r="G114" t="n">
-        <v>0.136603589723324</v>
+        <v>0.136606081287282</v>
       </c>
       <c r="H114" t="n">
         <v>1.86</v>
@@ -10234,7 +10234,7 @@
         <v>0.005</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0077621492408762</v>
+        <v>0.0078075892676869</v>
       </c>
       <c r="H122" t="n">
         <v>0.08599999999999999</v>
@@ -10315,7 +10315,7 @@
         <v>0.005</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0077621492408762</v>
+        <v>0.0078075892676869</v>
       </c>
       <c r="H123" t="n">
         <v>0.08599999999999999</v>
@@ -10733,24 +10733,24 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.00217</v>
+        <v>0.00232</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0085299311602005</v>
+        <v>0.008647308250583401</v>
       </c>
       <c r="H128" t="n">
         <v>0.203134935089944</v>
       </c>
       <c r="I128" t="n">
-        <v>0.02545</v>
+        <v>0.02647</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00345</v>
+        <v>0.00362</v>
       </c>
       <c r="M128" t="n">
-        <v>0.00697</v>
+        <v>0.007</v>
       </c>
       <c r="N128" t="n">
         <v>0.01239</v>
@@ -10814,24 +10814,24 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.00217</v>
+        <v>0.00232</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0085299311602005</v>
+        <v>0.008647308250583401</v>
       </c>
       <c r="H129" t="n">
         <v>0.203134935089944</v>
       </c>
       <c r="I129" t="n">
-        <v>0.02545</v>
+        <v>0.02647</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00345</v>
+        <v>0.00362</v>
       </c>
       <c r="M129" t="n">
-        <v>0.00697</v>
+        <v>0.007</v>
       </c>
       <c r="N129" t="n">
         <v>0.01239</v>
@@ -10898,7 +10898,7 @@
         <v>0.0755</v>
       </c>
       <c r="G130" t="n">
-        <v>0.124666923056658</v>
+        <v>0.124669414620616</v>
       </c>
       <c r="H130" t="n">
         <v>1.86</v>
@@ -10979,7 +10979,7 @@
         <v>0.0755</v>
       </c>
       <c r="G131" t="n">
-        <v>0.124666923056658</v>
+        <v>0.124669414620616</v>
       </c>
       <c r="H131" t="n">
         <v>1.86</v>
@@ -11600,10 +11600,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00406</v>
+        <v>0.00416</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0067874797157075</v>
+        <v>0.0068314048598384</v>
       </c>
       <c r="H139" t="n">
         <v>0.08599999999999999</v>
@@ -11614,7 +11614,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00407</v>
+        <v>0.00413</v>
       </c>
       <c r="M139" t="n">
         <v>0.006</v>
@@ -11681,10 +11681,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00406</v>
+        <v>0.00416</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0067874797157075</v>
+        <v>0.0068314048598384</v>
       </c>
       <c r="H140" t="n">
         <v>0.08599999999999999</v>
@@ -11695,7 +11695,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00407</v>
+        <v>0.00413</v>
       </c>
       <c r="M140" t="n">
         <v>0.006</v>
@@ -12102,24 +12102,24 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.00297</v>
+        <v>0.00304</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0091140461759729</v>
+        <v>0.009230021209074801</v>
       </c>
       <c r="H145" t="n">
         <v>0.203134935089944</v>
       </c>
       <c r="I145" t="n">
-        <v>0.02793</v>
+        <v>0.02916</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.00345</v>
+        <v>0.00362</v>
       </c>
       <c r="M145" t="n">
-        <v>0.00706</v>
+        <v>0.00708</v>
       </c>
       <c r="N145" t="n">
         <v>0.01256</v>
@@ -12183,24 +12183,24 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.00297</v>
+        <v>0.00304</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0091140461759729</v>
+        <v>0.009230021209074801</v>
       </c>
       <c r="H146" t="n">
         <v>0.203134935089944</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02793</v>
+        <v>0.02916</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00345</v>
+        <v>0.00362</v>
       </c>
       <c r="M146" t="n">
-        <v>0.00706</v>
+        <v>0.00708</v>
       </c>
       <c r="N146" t="n">
         <v>0.01256</v>
@@ -12972,7 +12972,7 @@
         <v>0.004</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0054406654808542</v>
+        <v>0.0054722525287527</v>
       </c>
       <c r="H156" t="n">
         <v>0.041</v>
@@ -13053,7 +13053,7 @@
         <v>0.004</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0054406654808542</v>
+        <v>0.0054722525287527</v>
       </c>
       <c r="H157" t="n">
         <v>0.041</v>
@@ -13471,10 +13471,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00309</v>
+        <v>0.00315</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0054008817503245</v>
+        <v>0.0055074588242117</v>
       </c>
       <c r="H162" t="n">
         <v>0.070747596205325</v>
@@ -13488,10 +13488,10 @@
         <v>0.00332</v>
       </c>
       <c r="M162" t="n">
-        <v>0.00617</v>
+        <v>0.00644</v>
       </c>
       <c r="N162" t="n">
-        <v>0.01075</v>
+        <v>0.01094</v>
       </c>
       <c r="O162" t="n">
         <v>1803109.05</v>
@@ -13552,10 +13552,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00309</v>
+        <v>0.00315</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0054008817503245</v>
+        <v>0.0055074588242117</v>
       </c>
       <c r="H163" t="n">
         <v>0.070747596205325</v>
@@ -13569,10 +13569,10 @@
         <v>0.00332</v>
       </c>
       <c r="M163" t="n">
-        <v>0.00617</v>
+        <v>0.00644</v>
       </c>
       <c r="N163" t="n">
-        <v>0.01075</v>
+        <v>0.01094</v>
       </c>
       <c r="O163" t="n">
         <v>1803109.05</v>
@@ -14338,10 +14338,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.00424</v>
+        <v>0.00434</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0065524980396238</v>
+        <v>0.0065739967113263</v>
       </c>
       <c r="H173" t="n">
         <v>0.041</v>
@@ -14352,7 +14352,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>0.00457</v>
+        <v>0.00463</v>
       </c>
       <c r="M173" t="n">
         <v>0.009299999999999999</v>
@@ -14419,10 +14419,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.00424</v>
+        <v>0.00434</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0065524980396238</v>
+        <v>0.0065739967113263</v>
       </c>
       <c r="H174" t="n">
         <v>0.041</v>
@@ -14433,7 +14433,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
-        <v>0.00457</v>
+        <v>0.00463</v>
       </c>
       <c r="M174" t="n">
         <v>0.009299999999999999</v>
@@ -14840,10 +14840,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.00372</v>
+        <v>0.00381</v>
       </c>
       <c r="G179" t="n">
-        <v>0.006625935788728</v>
+        <v>0.0067089137689868</v>
       </c>
       <c r="H179" t="n">
         <v>0.070747596205325</v>
@@ -14854,10 +14854,10 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.00345</v>
+        <v>0.00362</v>
       </c>
       <c r="M179" t="n">
-        <v>0.009259999999999999</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="N179" t="n">
         <v>0.01416</v>
@@ -14921,10 +14921,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.00372</v>
+        <v>0.00381</v>
       </c>
       <c r="G180" t="n">
-        <v>0.006625935788728</v>
+        <v>0.0067089137689868</v>
       </c>
       <c r="H180" t="n">
         <v>0.070747596205325</v>
@@ -14935,10 +14935,10 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00345</v>
+        <v>0.00362</v>
       </c>
       <c r="M180" t="n">
-        <v>0.009259999999999999</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="N180" t="n">
         <v>0.01416</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.852424242424242</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.3975</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.5335</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0058059773937757</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.01475</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0058059773937757</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.01475</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>104</v>
+      </c>
+      <c r="G192" t="n">
+        <v>368.060618135171</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2452</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1581.5</v>
+      </c>
+      <c r="J192" t="n">
+        <v>21.8181818181818</v>
+      </c>
+      <c r="K192" t="n">
+        <v>38.1818181818182</v>
+      </c>
+      <c r="L192" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="M192" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1220</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>104</v>
+      </c>
+      <c r="G193" t="n">
+        <v>368.060618135171</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2452</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1581.5</v>
+      </c>
+      <c r="J193" t="n">
+        <v>21.8181818181818</v>
+      </c>
+      <c r="K193" t="n">
+        <v>38.1818181818182</v>
+      </c>
+      <c r="L193" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="M193" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1220</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>104</v>
+      </c>
+      <c r="G194" t="n">
+        <v>368.060618135171</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2452</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1581.5</v>
+      </c>
+      <c r="J194" t="n">
+        <v>21.8181818181818</v>
+      </c>
+      <c r="K194" t="n">
+        <v>38.1818181818182</v>
+      </c>
+      <c r="L194" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="M194" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1220</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>104</v>
+      </c>
+      <c r="G195" t="n">
+        <v>368.060618135171</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2452</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1581.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>21.8181818181818</v>
+      </c>
+      <c r="K195" t="n">
+        <v>38.1818181818182</v>
+      </c>
+      <c r="L195" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="M195" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1220</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.00331</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0050731631253006</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.0344463505019799</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.01508</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.00239</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.01302</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.00331</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0050731631253006</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.0344463505019799</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.01508</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.00239</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.01302</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.176981818181818</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.29745</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.5197000000000001</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.176981818181818</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.0915</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.29745</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.5197000000000001</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.187955357142857</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.6172</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.33148</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.53908</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.187955357142857</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.6172</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.33148</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.53908</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.296909090909091</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.296909090909091</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0227454545454545</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mangaore at d/s Shannon STP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0227454545454545</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.0431</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1803109.05</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5509886.23</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_13d</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
